--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H2">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I2">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J2">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4420293775365</v>
+        <v>22.11318066666666</v>
       </c>
       <c r="N2">
-        <v>10.4420293775365</v>
+        <v>66.33954199999999</v>
       </c>
       <c r="O2">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="P2">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="Q2">
-        <v>189.3517647287664</v>
+        <v>691.5084741531705</v>
       </c>
       <c r="R2">
-        <v>189.3517647287664</v>
+        <v>6223.576267378534</v>
       </c>
       <c r="S2">
-        <v>0.09886081701592897</v>
+        <v>0.1892305523510634</v>
       </c>
       <c r="T2">
-        <v>0.09886081701592897</v>
+        <v>0.1892305523510634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H3">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I3">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J3">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.6114441113118</v>
+        <v>7.622575</v>
       </c>
       <c r="N3">
-        <v>7.6114441113118</v>
+        <v>22.867725</v>
       </c>
       <c r="O3">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="P3">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="Q3">
-        <v>138.0230147323418</v>
+        <v>238.3680252435917</v>
       </c>
       <c r="R3">
-        <v>138.0230147323418</v>
+        <v>2145.312227192325</v>
       </c>
       <c r="S3">
-        <v>0.07206200598651168</v>
+        <v>0.06522915447264048</v>
       </c>
       <c r="T3">
-        <v>0.07206200598651168</v>
+        <v>0.06522915447264048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H4">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I4">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J4">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.3020597030673</v>
+        <v>81.20214833333334</v>
       </c>
       <c r="N4">
-        <v>79.3020597030673</v>
+        <v>243.606445</v>
       </c>
       <c r="O4">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="P4">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="Q4">
-        <v>1438.033202981122</v>
+        <v>2539.298825364641</v>
       </c>
       <c r="R4">
-        <v>1438.033202981122</v>
+        <v>22853.68942828177</v>
       </c>
       <c r="S4">
-        <v>0.7507991147924548</v>
+        <v>0.6948764003168569</v>
       </c>
       <c r="T4">
-        <v>0.7507991147924548</v>
+        <v>0.6948764003168569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H5">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I5">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J5">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.4420293775365</v>
+        <v>22.11318066666666</v>
       </c>
       <c r="N5">
-        <v>10.4420293775365</v>
+        <v>66.33954199999999</v>
       </c>
       <c r="O5">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="P5">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="Q5">
-        <v>9.558043707472708</v>
+        <v>21.40666454436666</v>
       </c>
       <c r="R5">
-        <v>9.558043707472708</v>
+        <v>192.6599808993</v>
       </c>
       <c r="S5">
-        <v>0.004990267776739441</v>
+        <v>0.005857910795214883</v>
       </c>
       <c r="T5">
-        <v>0.004990267776739441</v>
+        <v>0.005857910795214882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H6">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I6">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J6">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.6114441113118</v>
+        <v>7.622575</v>
       </c>
       <c r="N6">
-        <v>7.6114441113118</v>
+        <v>22.867725</v>
       </c>
       <c r="O6">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="P6">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="Q6">
-        <v>6.967085885566371</v>
+        <v>7.37903372875</v>
       </c>
       <c r="R6">
-        <v>6.967085885566371</v>
+        <v>66.41130355875001</v>
       </c>
       <c r="S6">
-        <v>0.003637525131354638</v>
+        <v>0.002019264666305734</v>
       </c>
       <c r="T6">
-        <v>0.003637525131354638</v>
+        <v>0.002019264666305734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H7">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I7">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J7">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.3020597030673</v>
+        <v>81.20214833333334</v>
       </c>
       <c r="N7">
-        <v>79.3020597030673</v>
+        <v>243.606445</v>
       </c>
       <c r="O7">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="P7">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="Q7">
-        <v>72.58862480938063</v>
+        <v>78.60773969408334</v>
       </c>
       <c r="R7">
-        <v>72.58862480938063</v>
+        <v>707.46965724675</v>
       </c>
       <c r="S7">
-        <v>0.03789862093441528</v>
+        <v>0.0215109236652466</v>
       </c>
       <c r="T7">
-        <v>0.03789862093441528</v>
+        <v>0.0215109236652466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H8">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I8">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J8">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4420293775365</v>
+        <v>22.11318066666666</v>
       </c>
       <c r="N8">
-        <v>10.4420293775365</v>
+        <v>66.33954199999999</v>
       </c>
       <c r="O8">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="P8">
-        <v>0.1072566605634245</v>
+        <v>0.1993293533530854</v>
       </c>
       <c r="Q8">
-        <v>6.52282473051272</v>
+        <v>15.49755829343933</v>
       </c>
       <c r="R8">
-        <v>6.52282473051272</v>
+        <v>139.478024640954</v>
       </c>
       <c r="S8">
-        <v>0.003405575770756089</v>
+        <v>0.004240890206807139</v>
       </c>
       <c r="T8">
-        <v>0.003405575770756089</v>
+        <v>0.004240890206807139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H9">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I9">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J9">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.6114441113118</v>
+        <v>7.622575</v>
       </c>
       <c r="N9">
-        <v>7.6114441113118</v>
+        <v>22.867725</v>
       </c>
       <c r="O9">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="P9">
-        <v>0.07818193647306586</v>
+        <v>0.06871028498970018</v>
       </c>
       <c r="Q9">
-        <v>4.754642425253651</v>
+        <v>5.342121614675</v>
       </c>
       <c r="R9">
-        <v>4.754642425253651</v>
+        <v>48.079094532075</v>
       </c>
       <c r="S9">
-        <v>0.002482405355199545</v>
+        <v>0.001461865850753971</v>
       </c>
       <c r="T9">
-        <v>0.002482405355199545</v>
+        <v>0.001461865850753971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H10">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I10">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J10">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>79.3020597030673</v>
+        <v>81.20214833333334</v>
       </c>
       <c r="N10">
-        <v>79.3020597030673</v>
+        <v>243.606445</v>
       </c>
       <c r="O10">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="P10">
-        <v>0.8145614029635097</v>
+        <v>0.7319603616572145</v>
       </c>
       <c r="Q10">
-        <v>49.53763464069085</v>
+        <v>56.90882041430167</v>
       </c>
       <c r="R10">
-        <v>49.53763464069085</v>
+        <v>512.179383728715</v>
       </c>
       <c r="S10">
-        <v>0.02586366723663959</v>
+        <v>0.0155730376751109</v>
       </c>
       <c r="T10">
-        <v>0.02586366723663959</v>
+        <v>0.0155730376751109</v>
       </c>
     </row>
   </sheetData>
